--- a/Lectures/Lecture 6/Lecture6WS.xlsx
+++ b/Lectures/Lecture 6/Lecture6WS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mario Documents\UNC\STOR 305\STOR305_WEBSITE\Lectures\Lecture 6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99649174-6020-4377-B176-4AD37143E547}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02522215-8BF2-41DC-B84C-785A867AFB6B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14160" activeTab="3" xr2:uid="{5DC7B51A-225C-408D-84E4-2337C2B22D3B}"/>
+    <workbookView xWindow="2610" yWindow="1870" windowWidth="20570" windowHeight="10160" activeTab="3" xr2:uid="{5DC7B51A-225C-408D-84E4-2337C2B22D3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -629,7 +629,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -884,10 +884,6 @@
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="D7" t="e" cm="1">
-        <f t="array" ref="D7">SUMPR</f>
-        <v>#NAME?</v>
-      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">

--- a/Lectures/Lecture 6/Lecture6WS.xlsx
+++ b/Lectures/Lecture 6/Lecture6WS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mario Documents\UNC\STOR 305\STOR305_WEBSITE\Lectures\Lecture 6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02522215-8BF2-41DC-B84C-785A867AFB6B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75646039-6407-48FA-9BD9-30A6FA0E340C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2610" yWindow="1870" windowWidth="20570" windowHeight="10160" activeTab="3" xr2:uid="{5DC7B51A-225C-408D-84E4-2337C2B22D3B}"/>
+    <workbookView xWindow="340" yWindow="1510" windowWidth="20570" windowHeight="10160" xr2:uid="{5DC7B51A-225C-408D-84E4-2337C2B22D3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -532,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{094E20C1-7124-4124-9D17-5527BA8A5825}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -805,8 +805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EBBF86C-383E-4095-BA39-F39980D4FC77}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
